--- a/doc/新商城功能列表及相关说明20171112.xlsx
+++ b/doc/新商城功能列表及相关说明20171112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="功能" sheetId="1" r:id="rId1"/>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">a、后台产品分类：http://wx.adjyc.cn/web/index.php?c=site&amp;a=entry&amp;m=ewei_shopv2&amp;do=web&amp;r=goods.category
 </t>
     </r>
@@ -591,6 +597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.399975585192419"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>供应商管理(</t>
     </r>
     <r>
@@ -635,6 +647,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.399975585192419"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>专题频道管理</t>
     </r>
     <r>
@@ -667,6 +685,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.399975585192419"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>店铺（渠道）管理</t>
     </r>
     <r>
@@ -699,6 +723,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.399975585192419"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>广告管理</t>
     </r>
     <r>
@@ -949,10 +979,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1006,29 +1036,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1067,19 +1074,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1107,24 +1142,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1152,36 +1182,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1195,54 +1195,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,6 +1249,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,6 +1428,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1418,6 +1463,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,41 +1519,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1501,10 +1531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1513,133 +1543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2305,15 +2335,15 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19" style="6" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.75" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="9" style="7"/>
@@ -3648,7 +3678,7 @@
   <sheetPr/>
   <dimension ref="B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>

--- a/doc/新商城功能列表及相关说明20171112.xlsx
+++ b/doc/新商城功能列表及相关说明20171112.xlsx
@@ -979,8 +979,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1036,6 +1036,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1074,47 +1097,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1142,19 +1137,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1182,6 +1182,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1195,6 +1225,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,84 +1327,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,21 +1428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1463,26 +1448,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1519,6 +1484,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1531,10 +1531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1543,133 +1543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2336,7 +2336,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2425,7 +2425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="66" spans="1:8">
+    <row r="4" s="2" customFormat="1" ht="49.5" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="8" t="s">
@@ -2485,7 +2485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="66" spans="1:8">
+    <row r="7" s="2" customFormat="1" ht="33" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="8" t="s">
@@ -2503,7 +2503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="49.5" spans="1:8">
+    <row r="8" s="2" customFormat="1" ht="33" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15" t="s">
@@ -2799,7 +2799,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="82.5" spans="1:8">
+    <row r="23" s="2" customFormat="1" ht="49.5" spans="1:8">
       <c r="A23" s="12"/>
       <c r="B23" s="17"/>
       <c r="C23" s="15" t="s">
@@ -2855,7 +2855,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="66" spans="1:7">
+    <row r="26" s="2" customFormat="1" spans="1:7">
       <c r="A26" s="16" t="s">
         <v>89</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="49.5" spans="1:7">
+    <row r="27" s="2" customFormat="1" spans="1:7">
       <c r="A27" s="17"/>
       <c r="B27" s="16" t="s">
         <v>92</v>
@@ -2891,7 +2891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="99" spans="1:7">
+    <row r="28" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A28" s="17"/>
       <c r="B28" s="16" t="s">
         <v>94</v>
@@ -2908,7 +2908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="49.5" spans="1:7">
+    <row r="29" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A29" s="18"/>
       <c r="B29" s="16" t="s">
         <v>96</v>
@@ -2923,7 +2923,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="82.5" spans="1:7">
+    <row r="30" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="49.5" spans="1:7">
+    <row r="31" s="2" customFormat="1" spans="1:7">
       <c r="A31" s="17"/>
       <c r="B31" s="16" t="s">
         <v>100</v>
@@ -2959,7 +2959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="132" spans="1:7">
+    <row r="32" s="2" customFormat="1" ht="49.5" spans="1:7">
       <c r="A32" s="18"/>
       <c r="B32" s="16" t="s">
         <v>102</v>
@@ -3099,7 +3099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="33" spans="1:7">
+    <row r="40" s="2" customFormat="1" spans="1:7">
       <c r="A40" s="11" t="s">
         <v>120</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="33" spans="1:7">
+    <row r="42" s="2" customFormat="1" spans="1:7">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="19" t="s">
@@ -3188,7 +3188,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="33" spans="1:7">
+    <row r="45" s="2" customFormat="1" spans="1:7">
       <c r="A45" s="12"/>
       <c r="B45" s="14"/>
       <c r="C45" s="20" t="s">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="G49" s="8"/>
     </row>
-    <row r="50" s="2" customFormat="1" ht="49.5" spans="1:7">
+    <row r="50" s="2" customFormat="1" spans="1:7">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="8" t="s">
@@ -3288,7 +3288,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="115.5" spans="1:7">
+    <row r="52" s="2" customFormat="1" ht="49.5" spans="1:7">
       <c r="A52" s="8" t="s">
         <v>143</v>
       </c>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="33" spans="1:7">
+    <row r="53" s="2" customFormat="1" spans="1:7">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>146</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="82.5" spans="1:7">
+    <row r="54" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A54" s="16" t="s">
         <v>147</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="99" spans="1:7">
+    <row r="55" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A55" s="15" t="s">
         <v>149</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="115.5" spans="1:7">
+    <row r="60" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A60" s="15"/>
       <c r="B60" s="15" t="s">
         <v>160</v>
@@ -3441,7 +3441,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="49.5" spans="1:7">
+    <row r="63" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A63" s="16" t="s">
         <v>165</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="82.5" spans="1:7">
+    <row r="64" s="2" customFormat="1" ht="33" spans="1:7">
       <c r="A64" s="17"/>
       <c r="B64" s="15" t="s">
         <v>167</v>
